--- a/biology/Zoologie/Cave_canem/Cave_canem.xlsx
+++ b/biology/Zoologie/Cave_canem/Cave_canem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cave canem est une expression latine à l'impératif signifiant littéralement « prends » ou « prenez garde au chien », et que l'on peut traduire « attention au chien ». Elle a été retrouvée inscrite sur une mosaïque représentant un chien à l'entrée d'une villa de Pompéi, qui visait à dissuader les intrus en avertissant de la présence d'un chien de garde.
@@ -512,11 +524,13 @@
           <t>Pompéi</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet avertissement a été retrouvé lors de fouilles archéologiques effectuées dans la cité ensevelie de Pompéi, dans la maison du Poète tragique (en).
 Il était inscrit en lettres capitales aux côtés d'une représentation d'un chien tenu en laisse, sur une mosaïque recouvrant le sol du vestibule. Le but était non seulement d'avertir les visiteurs, mais surtout de décourager les intrus d'y pénétrer.
-Il semble en fait que ce type de mise en garde était fréquent sur le seuil des demeures romaines. Plusieurs autres mosaïques figurant un chien de garde tirant sur sa laisse ont d'ailleurs été mises au jour à Pompéi, mais pas nécessairement avec l'inscription, notamment à la maison d'Orphée (it)[1], ou dans un thermopolium (fresque découverte en 2019)[2]. Pétrone, l'écrivain latin du Ier siècle, y fait également référence dans le Festin chez Trimalcion, au chapitre XXIX de son roman le Satyricon, lorsque le narrateur Encolple pénètre dans la demeure de Trimalcion : 
+Il semble en fait que ce type de mise en garde était fréquent sur le seuil des demeures romaines. Plusieurs autres mosaïques figurant un chien de garde tirant sur sa laisse ont d'ailleurs été mises au jour à Pompéi, mais pas nécessairement avec l'inscription, notamment à la maison d'Orphée (it), ou dans un thermopolium (fresque découverte en 2019). Pétrone, l'écrivain latin du Ier siècle, y fait également référence dans le Festin chez Trimalcion, au chapitre XXIX de son roman le Satyricon, lorsque le narrateur Encolple pénètre dans la demeure de Trimalcion : 
         « Ceterum ego dum omnia stupeo, paene resupinatus crura mea fregi. Ad sinistram enim intrantibus non longe ab ostiarii cella canis ingens, catena vinctus, in pariete erat pictus superque quadrata littera scriptum
 CAVE, CAVE CANEM.
 Et collegae quidem mei riserunt. »
@@ -554,7 +568,9 @@
           <t>Moyen Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cave canem a aussi été au Moyen Âge une des devises des marins de Saint-Malo, en référence aux « chiens du guet », ces dogues que l'on lâchait la nuit pour protéger la ville. Les navires malouins contraints à la bataille déployaient leur bannière de combat représentant un dogue prêt à mordre : c'était leur Cave canem, dernier avertissement avant le début des hostilités. 
 </t>
@@ -585,7 +601,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Léon Gérôme a peint en 1881 un tableau intitulé Cave canem, prisonnier de guerre à Rome.
 Le cabinet de travail d’Alexandre Dumas — dit château d’If — est situé à Port-Marly sur la propriété du château de Monte-Cristo, minuscule château au style néogothique, érigé sur un petit îlot. Devant ce cabinet, une statue représente un chien dans sa niche, avec l'inscription Cave canem.
@@ -619,12 +637,14 @@
           <t>Aujourd'hui</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>On retrouve la devise sur l'insigne du Centre d'instruction et d'applications sur avions nouveaux (CIAAN) de l'armée de l'air française, pendant la Seconde Guerre mondiale[3]. Elle y accompagne un dessin de chien à trois têtes, respectivement bleue, blanche et rouge — les couleurs du drapeau français.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>On retrouve la devise sur l'insigne du Centre d'instruction et d'applications sur avions nouveaux (CIAAN) de l'armée de l'air française, pendant la Seconde Guerre mondiale. Elle y accompagne un dessin de chien à trois têtes, respectivement bleue, blanche et rouge — les couleurs du drapeau français.
 De nos jours, de nombreuses sociétés de sécurité et de surveillance portent le nom de Cave canem, généralement accompagné d'un logo représentant un chien méchant.
-Dans l'album d'Astérix La Zizanie, on trouve cette inscription sur la résidence de César, traduite « Attention au chien »[4],[5].
-Dans la série Kaamelott d'Alexandre Astier, cave canem est la seule phrase en latin que le seigneur Karadoc connaît[6].
+Dans l'album d'Astérix La Zizanie, on trouve cette inscription sur la résidence de César, traduite « Attention au chien »,.
+Dans la série Kaamelott d'Alexandre Astier, cave canem est la seule phrase en latin que le seigneur Karadoc connaît.
 Ancienne devise de la ville de Saint-Malo, elle est désormais inscrite à la sortie des vestiaires, au fronton de l'entrée sur le terrain de l'US Saint-Malo, le club de football de la ville actuellement en National 2.
 Cette devise est celle de la 5e unité d'intervention de réserve du 31e régiment du génie.
 L'expression a été traduite dans différentes langues et est encore utilisée de nos jours à l'entrée de maisons.
